--- a/csv/rf/rf_pc25_final.xlsx
+++ b/csv/rf/rf_pc25_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.30092592592592593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041820702928282286</v>
+        <v>0.061905609816469545</v>
       </c>
     </row>
   </sheetData>
@@ -146,10 +146,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -158,10 +158,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -178,13 +178,13 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -195,19 +195,19 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -215,22 +215,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -244,16 +244,16 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -261,22 +261,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/rf/rf_pc25_final.xlsx
+++ b/csv/rf/rf_pc25_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.30092592592592593</v>
+        <v>0.38425925925925924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.061905609816469545</v>
+        <v>0.10306516377292134</v>
       </c>
     </row>
   </sheetData>
@@ -146,10 +146,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -161,7 +161,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -172,16 +172,16 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -192,19 +192,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -215,19 +215,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
         <v>4.0</v>
@@ -238,7 +238,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -247,13 +247,13 @@
         <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -267,16 +267,16 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F7" t="n">
         <v>3.0</v>
       </c>
-      <c r="E7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.0</v>
-      </c>
       <c r="G7" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
